--- a/Docs/lab03/Lab03_WBT_TCs_FormM.xlsx
+++ b/Docs/lab03/Lab03_WBT_TCs_FormM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C7A325-E0E7-4250-99D9-9FF1A2FB4B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D51FB3C-5311-4C41-A701-B245AC4D7B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -132,12 +132,6 @@
     <t>Req02_L03</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
     <t>Proiectaţi şi implementaţi o aplicaţie Java pentru rezolvarea problemei propuse. Se va evidenţia o arhitectură stratificată.</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lab03. White-box Testing. Code Coverage </t>
-  </si>
-  <si>
-    <t>1, 2,4, 6, 7</t>
   </si>
   <si>
     <t>#TCs run</t>
@@ -204,27 +195,6 @@
         <family val="2"/>
       </rPr>
       <t>failed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F02.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cautarea filmelor care au un anumit regizor (sau parti din numele regizorului);</t>
     </r>
   </si>
   <si>
@@ -277,9 +247,6 @@
   </si>
   <si>
     <t>F02_P02</t>
-  </si>
-  <si>
-    <t>F02_Pnn</t>
   </si>
   <si>
     <t>F01_TC02</t>
@@ -474,15 +441,6 @@
     <t>se gaseste imaginea pe desktop pe mermaid</t>
   </si>
   <si>
-    <t>1-&gt;2T-&gt;3-&gt;4-&gt;5T-&gt;6-&gt;7</t>
-  </si>
-  <si>
-    <t>1-&gt;2T-&gt;3-&gt;4-&gt;5F-&gt; 7</t>
-  </si>
-  <si>
-    <t>1-&gt;2F-&gt;7</t>
-  </si>
-  <si>
     <t>tasks = []; 
 start:1980/04/17, 12:30 
 end:1980/04/26, 12:30)</t>
@@ -506,9 +464,6 @@
     <t>F02_03</t>
   </si>
   <si>
-    <t>1-&gt;2T-&gt;3-&gt;7</t>
-  </si>
-  <si>
     <t>F02_P04</t>
   </si>
   <si>
@@ -518,9 +473,6 @@
     <t>tasks = [Task1, Task2, Task3]; 
 start:null
 end:null</t>
-  </si>
-  <si>
-    <t>1,2,7</t>
   </si>
   <si>
     <t>tasks = [
@@ -532,9 +484,6 @@
 end = new Date(80, 04, 26, 12,30)</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,3,7,9,10</t>
-  </si>
-  <si>
     <t>incomingTasks = [
 Task(new Date(80, 04, 20, 12,30)),
 Task(new Date(80, 04, 25, 12,30))]</t>
@@ -549,18 +498,12 @@
 end = new Date(80, 04, 22, 12,30)</t>
   </si>
   <si>
-    <t>1,2,3,4,5,3,7,8,10</t>
-  </si>
-  <si>
     <t>tasks = [
 Task(new Date(80, 04, 15, 12,30)),
 Task(new Date(80, 04, 20, 12,30)),
 Task(new Date(80, 04, 25, 12,30)),
 Task(new Date(80, 04, 30, 12,30))] start = null
 end = new Date(80, 04, 22, 12,30)</t>
-  </si>
-  <si>
-    <t>1,2,7,8,10</t>
   </si>
   <si>
     <t>tasks = [
@@ -689,13 +632,79 @@
   <si>
     <t>da</t>
   </si>
+  <si>
+    <t>1-&gt;2T-&gt;3T-&gt;4-&gt;5T-&gt;6-&gt;7T-&gt;8-&gt;9</t>
+  </si>
+  <si>
+    <t>1-&gt;2T-&gt;3-&gt;4-&gt;5T-&gt;6-&gt;7F-&gt;9</t>
+  </si>
+  <si>
+    <t>1-&gt;2T-&gt;3-&gt;4-&gt;5F-&gt;6-&gt;3-&gt;7T-&gt;8-&gt;9</t>
+  </si>
+  <si>
+    <t>1-&gt;2T-&gt;3-&gt;4-&gt;5F-&gt;6-&gt;3-&gt;7F-&gt;9</t>
+  </si>
+  <si>
+    <t>1-&gt;2F-&gt;7T-&gt;8-&gt;9</t>
+  </si>
+  <si>
+    <t>1-&gt;2T-&gt;7F-&gt;9</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>F02_P06</t>
+  </si>
+  <si>
+    <t>1, 2,3, 7,8,9</t>
+  </si>
+  <si>
+    <t>1,2,7,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,3,7,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,3,7,8,9</t>
+  </si>
+  <si>
+    <t>F02_P07</t>
+  </si>
+  <si>
+    <t>1-&gt;2T-&gt;3F-&gt;7T-&gt;8-&gt;9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F02.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AFISAREA TASKURILOR DINTR-O ANUMITA PERIOADA</t>
+    </r>
+  </si>
+  <si>
+    <t>1. APLICATIE DE TASKURI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd&quot;, &quot;h:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd&quot;, &quot;h:mm"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1440,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1513,6 +1522,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1525,6 +1593,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,9 +1608,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,12 +1635,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1579,22 +1665,76 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,18 +1752,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1633,9 +1773,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1645,146 +1782,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1841,6 +1841,94 @@
         <a:xfrm>
           <a:off x="0" y="1109134"/>
           <a:ext cx="4834467" cy="2534488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>491067</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843BF65A-AD49-3DC8-D215-36E8D75A5996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3657600"/>
+          <a:ext cx="4834467" cy="695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>143150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE71590-04EB-3642-112C-7F4796AE5584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="1236133"/>
+          <a:ext cx="1971950" cy="5601482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2145,7 +2233,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2155,34 +2243,34 @@
   <sheetData>
     <row r="1" spans="2:16">
       <c r="B1" s="10"/>
-      <c r="D1" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="2:16">
       <c r="B2" s="33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -2193,10 +2281,10 @@
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -2205,7 +2293,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="N7" s="22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -2216,35 +2304,32 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="N8" s="22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="N9" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="31" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2277,8 +2362,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2289,367 +2374,365 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" s="10"/>
-      <c r="D1" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="D1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="I6" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="Q6" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
+      <c r="I6" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="Q6" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="I8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
       <c r="T8" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="I9" s="32"/>
-      <c r="Q9" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
+      <c r="Q9" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
       <c r="T9" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="I10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
-      <c r="Q10" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="51" t="s">
+      <c r="I10" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+      <c r="Q10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="51"/>
+      <c r="S10" s="60"/>
       <c r="T10" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
-      <c r="Q13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="69"/>
+      <c r="Q13" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="69"/>
       <c r="Q15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="52" t="s">
+      <c r="R15" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="69"/>
       <c r="Q16" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="R16" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+        <v>52</v>
+      </c>
+      <c r="R16" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
     </row>
     <row r="17" spans="9:20">
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="69"/>
       <c r="Q17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
+        <v>53</v>
+      </c>
+      <c r="R17" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
     </row>
     <row r="18" spans="9:20">
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="69"/>
       <c r="Q18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+    </row>
+    <row r="19" spans="9:20">
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="69"/>
+      <c r="Q19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-    </row>
-    <row r="19" spans="9:20">
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
-      <c r="Q19" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+      <c r="R19" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
     </row>
     <row r="20" spans="9:20">
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
       <c r="Q20" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+        <v>118</v>
+      </c>
+      <c r="R20" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
     </row>
     <row r="21" spans="9:20">
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="47"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
       <c r="Q21" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+        <v>119</v>
+      </c>
+      <c r="R21" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
     </row>
     <row r="22" spans="9:20">
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="47"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="69"/>
+      <c r="Q22" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="R22" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="23" spans="9:20">
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="47"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="9:20">
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2666,6 +2749,14 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2678,10 +2769,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB17"/>
+  <dimension ref="B1:AC17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2700,184 +2791,187 @@
     <col min="15" max="15" width="11.77734375" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
-    <col min="22" max="22" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" customWidth="1"/>
+    <col min="23" max="23" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28">
+    <row r="1" spans="2:29">
       <c r="B1" s="10"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="B3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="2:29" ht="15.6">
+      <c r="B6" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+    </row>
+    <row r="7" spans="2:29" ht="15.6">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+    </row>
+    <row r="8" spans="2:29" ht="15.6" customHeight="1">
+      <c r="B8" s="80"/>
+      <c r="C8" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="3" spans="2:28">
-      <c r="B3" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="5" spans="2:28">
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.6">
-      <c r="B6" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.6">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.6" customHeight="1">
-      <c r="B8" s="53"/>
-      <c r="C8" s="58" t="s">
+      <c r="I8" s="76"/>
+      <c r="J8" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="M8" s="76"/>
+      <c r="N8" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="76"/>
+      <c r="P8" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="34"/>
+      <c r="V8" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="79">
+        <v>0</v>
+      </c>
+      <c r="X8" s="79">
         <v>1</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="S8" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="T8" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="V8" s="56">
-        <v>0</v>
-      </c>
-      <c r="W8" s="56">
-        <v>1</v>
-      </c>
-      <c r="X8" s="56">
+      <c r="Y8" s="79">
         <v>2</v>
       </c>
-      <c r="Y8" s="56" t="s">
+      <c r="Z8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="56" t="s">
+      <c r="AA8" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="56" t="s">
+      <c r="AB8" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="56" t="s">
+      <c r="AC8" s="79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="15.6">
-      <c r="B9" s="53"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="61"/>
+    <row r="9" spans="2:29" ht="15.6">
+      <c r="B9" s="80"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
@@ -2908,42 +3002,47 @@
       <c r="O9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-    </row>
-    <row r="10" spans="2:28" ht="78">
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="34">
+        <v>6</v>
+      </c>
+      <c r="V9" s="78"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+    </row>
+    <row r="10" spans="2:29" ht="78">
       <c r="B10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -2952,34 +3051,37 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-      <c r="S10" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
-    </row>
-    <row r="11" spans="2:28" ht="62.4">
+      <c r="AC10" s="17"/>
+    </row>
+    <row r="11" spans="2:29" ht="62.4">
       <c r="B11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>97</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -2992,93 +3094,95 @@
       <c r="O11" s="15"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="R11" s="16"/>
       <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
+      <c r="T11" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="U11" s="16"/>
-      <c r="V11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="W11" s="17"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-    </row>
-    <row r="12" spans="2:28" ht="172.2">
-      <c r="B12" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="111"/>
+      <c r="AC11" s="17"/>
+    </row>
+    <row r="12" spans="2:29" ht="172.2">
+      <c r="B12" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="42"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="S12" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-    </row>
-    <row r="13" spans="2:28" ht="172.2">
-      <c r="B13" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="111"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+    </row>
+    <row r="13" spans="2:29" ht="172.2">
+      <c r="B13" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="42"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -3087,92 +3191,94 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="113" t="s">
+      <c r="V13" s="16"/>
+      <c r="W13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+    </row>
+    <row r="14" spans="2:29" ht="158.4">
+      <c r="B14" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-    </row>
-    <row r="14" spans="2:28" ht="158.4">
-      <c r="B14" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="111"/>
+      <c r="D14" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="42"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
-      <c r="V14" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-    </row>
-    <row r="15" spans="2:28" ht="158.4">
-      <c r="B15" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111" t="s">
-        <v>92</v>
+      <c r="V14" s="16"/>
+      <c r="W14" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+    </row>
+    <row r="15" spans="2:29" ht="158.4">
+      <c r="B15" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
+        <v>84</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -3180,132 +3286,133 @@
       <c r="O15" s="15"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-    </row>
-    <row r="16" spans="2:28" ht="93">
-      <c r="B16" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="111"/>
-      <c r="K16" s="101" t="s">
-        <v>92</v>
+      <c r="V15" s="16"/>
+      <c r="W15" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+    </row>
+    <row r="16" spans="2:29" ht="93">
+      <c r="B16" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="K16" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="S16" t="s">
-        <v>92</v>
-      </c>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-    </row>
-    <row r="17" spans="2:28" ht="119.4">
-      <c r="B17" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="111"/>
-      <c r="K17" s="101" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+    </row>
+    <row r="17" spans="2:29" ht="119.4">
+      <c r="B17" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="K17" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="Q17" t="s">
-        <v>92</v>
-      </c>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
+        <v>84</v>
+      </c>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="E6:AC6"/>
     <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="V8:V9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:V7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3319,7 +3426,7 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3340,55 +3447,55 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="B1" s="10"/>
-      <c r="D1" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67" t="s">
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="77"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3401,10 +3508,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="113"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3416,133 +3523,133 @@
       <c r="B6" s="18">
         <v>9</v>
       </c>
-      <c r="C6" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="116" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="117">
+      <c r="C6" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="48">
         <v>29328.520833333299</v>
       </c>
-      <c r="G6" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="118" t="s">
+      <c r="G6" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="119" t="s">
-        <v>123</v>
+      <c r="J6" s="83"/>
+      <c r="K6" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.6">
       <c r="B7" s="18">
         <v>10</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="114" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="123"/>
-      <c r="K7" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" s="119" t="s">
-        <v>123</v>
+      <c r="J7" s="84"/>
+      <c r="K7" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="244.8">
       <c r="B8" s="18">
         <v>11</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="115" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="117">
+      <c r="C8" s="116"/>
+      <c r="D8" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="48">
         <v>29328.520833333299</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="48">
         <v>29328.520833333332</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="123"/>
-      <c r="K8" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="122" t="s">
-        <v>122</v>
+      <c r="J8" s="84"/>
+      <c r="K8" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="244.8">
       <c r="B9" s="18">
         <v>12</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="117">
+      <c r="C9" s="116"/>
+      <c r="D9" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="48">
         <v>29332.520833333299</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="48">
         <v>29333.520833333299</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" s="119" t="s">
-        <v>123</v>
+      <c r="J9" s="84"/>
+      <c r="K9" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="8" t="s">
         <v>1</v>
       </c>
@@ -3558,10 +3665,10 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="113"/>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3589,83 +3696,83 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="H13" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="108"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1">
+      <c r="B14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80" t="s">
+      <c r="G14" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="78" t="s">
+      <c r="H14" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="62" t="s">
+      <c r="I14" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="63"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1">
-      <c r="B14" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="92" t="s">
+      <c r="M14" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="N14" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="74" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="91"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="83"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="91"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="22">
@@ -3677,17 +3784,17 @@
       <c r="D16" s="20">
         <v>4</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="54">
         <v>1</v>
       </c>
       <c r="F16" s="21">
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I16" s="22">
         <v>7</v>
@@ -3698,11 +3805,11 @@
       <c r="K16" s="23">
         <v>0</v>
       </c>
-      <c r="L16" s="124">
+      <c r="L16" s="53">
         <v>1</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="N16" s="24">
         <v>7</v>
@@ -3710,25 +3817,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
@@ -3741,6 +3829,25 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3748,9 +3855,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3898,19 +4008,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3934,9 +4040,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/lab03/Lab03_WBT_TCs_FormM.xlsx
+++ b/Docs/lab03/Lab03_WBT_TCs_FormM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D51FB3C-5311-4C41-A701-B245AC4D7B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A15E6A4-BBA5-4DA7-96A4-F29E2973C89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="129">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>F02_TC02</t>
-  </si>
-  <si>
-    <t>F02_Condnn &lt; n</t>
   </si>
   <si>
     <t>F02_P01</t>
@@ -697,6 +694,12 @@
   </si>
   <si>
     <t>1. APLICATIE DE TASKURI</t>
+  </si>
+  <si>
+    <t>13-10+2 = 5</t>
+  </si>
+  <si>
+    <t>incomingTasksisEmpty()</t>
   </si>
 </sst>
 </file>
@@ -1895,16 +1898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>592665</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:rowOff>93132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>143150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>132015</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>186267</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>46260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1927,8 +1930,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562600" y="1236133"/>
-          <a:ext cx="1971950" cy="5601482"/>
+          <a:off x="4936065" y="1210732"/>
+          <a:ext cx="4470402" cy="10942861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2244,7 +2247,7 @@
     <row r="1" spans="2:16">
       <c r="B1" s="10"/>
       <c r="D1" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="56"/>
@@ -2252,12 +2255,12 @@
     </row>
     <row r="2" spans="2:16">
       <c r="B2" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>38</v>
@@ -2270,7 +2273,7 @@
         <v>33</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -2281,10 +2284,10 @@
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -2293,7 +2296,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="N7" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -2304,20 +2307,20 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="N8" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="N9" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2363,7 +2366,7 @@
   <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2375,7 +2378,7 @@
     <row r="1" spans="2:20">
       <c r="B1" s="10"/>
       <c r="D1" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="56"/>
@@ -2434,7 +2437,7 @@
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="I8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="60" t="s">
         <v>14</v>
@@ -2462,8 +2465,8 @@
       </c>
       <c r="R9" s="60"/>
       <c r="S9" s="60"/>
-      <c r="T9" s="28">
-        <v>3</v>
+      <c r="T9" s="28" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -2478,7 +2481,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="I10" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="65"/>
       <c r="K10" s="65"/>
@@ -2605,10 +2608,10 @@
       <c r="N16" s="68"/>
       <c r="O16" s="69"/>
       <c r="Q16" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R16" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S16" s="58"/>
       <c r="T16" s="58"/>
@@ -2622,10 +2625,10 @@
       <c r="N17" s="68"/>
       <c r="O17" s="69"/>
       <c r="Q17" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R17" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S17" s="58"/>
       <c r="T17" s="58"/>
@@ -2639,10 +2642,10 @@
       <c r="N18" s="68"/>
       <c r="O18" s="69"/>
       <c r="Q18" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R18" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S18" s="58"/>
       <c r="T18" s="58"/>
@@ -2656,10 +2659,10 @@
       <c r="N19" s="68"/>
       <c r="O19" s="69"/>
       <c r="Q19" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R19" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S19" s="58"/>
       <c r="T19" s="58"/>
@@ -2673,10 +2676,10 @@
       <c r="N20" s="68"/>
       <c r="O20" s="69"/>
       <c r="Q20" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R20" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S20" s="58"/>
       <c r="T20" s="58"/>
@@ -2690,10 +2693,10 @@
       <c r="N21" s="68"/>
       <c r="O21" s="69"/>
       <c r="Q21" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R21" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S21" s="58"/>
       <c r="T21" s="58"/>
@@ -2707,10 +2710,10 @@
       <c r="N22" s="68"/>
       <c r="O22" s="69"/>
       <c r="Q22" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="R22" t="s">
         <v>124</v>
-      </c>
-      <c r="R22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="9:20">
@@ -2769,10 +2772,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AC17"/>
+  <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2787,29 +2790,28 @@
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="6.109375" customWidth="1"/>
     <col min="12" max="12" width="6.44140625" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="21" max="21" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:27">
       <c r="B1" s="10"/>
       <c r="D1" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="56"/>
       <c r="G1" s="57"/>
     </row>
-    <row r="3" spans="2:29">
+    <row r="3" spans="2:27">
       <c r="B3" s="61" t="s">
         <v>44</v>
       </c>
@@ -2818,10 +2820,10 @@
       <c r="E3" s="62"/>
       <c r="F3" s="63"/>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:27">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="2:29" ht="15.6">
+    <row r="6" spans="2:27" ht="15.6">
       <c r="B6" s="80" t="s">
         <v>27</v>
       </c>
@@ -2856,10 +2858,8 @@
       <c r="Y6" s="80"/>
       <c r="Z6" s="80"/>
       <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-    </row>
-    <row r="7" spans="2:29" ht="15.6">
+    </row>
+    <row r="7" spans="2:27" ht="15.6">
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="82"/>
@@ -2876,28 +2876,26 @@
       <c r="K7" s="76"/>
       <c r="L7" s="76"/>
       <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="78" t="s">
-        <v>63</v>
-      </c>
+      <c r="N7" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="78"/>
       <c r="S7" s="78"/>
       <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="79" t="s">
+      <c r="U7" s="79" t="s">
         <v>20</v>
       </c>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
       <c r="X7" s="79"/>
       <c r="Y7" s="79"/>
       <c r="Z7" s="79"/>
       <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-    </row>
-    <row r="8" spans="2:29" ht="15.6" customHeight="1">
+    </row>
+    <row r="8" spans="2:27" ht="15.6" customHeight="1">
       <c r="B8" s="80"/>
       <c r="C8" s="74" t="s">
         <v>1</v>
@@ -2907,67 +2905,63 @@
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="76"/>
       <c r="H8" s="76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="76"/>
       <c r="J8" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="76"/>
       <c r="L8" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="76"/>
+      <c r="N8" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="34"/>
+      <c r="T8" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="79">
+        <v>0</v>
+      </c>
+      <c r="V8" s="79">
         <v>1</v>
       </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="76"/>
-      <c r="P8" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="S8" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="78" t="s">
-        <v>124</v>
-      </c>
       <c r="W8" s="79">
-        <v>0</v>
-      </c>
-      <c r="X8" s="79">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="79">
         <v>2</v>
       </c>
+      <c r="X8" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="79" t="s">
+        <v>22</v>
+      </c>
       <c r="Z8" s="79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB8" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC8" s="79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.6">
+    <row r="9" spans="2:27" ht="15.6">
       <c r="B9" s="80"/>
       <c r="C9" s="75"/>
       <c r="D9" s="75"/>
@@ -2996,423 +2990,425 @@
       <c r="M9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
       <c r="P9" s="78"/>
       <c r="Q9" s="78"/>
       <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
+      <c r="S9" s="34">
+        <v>6</v>
+      </c>
       <c r="T9" s="78"/>
-      <c r="U9" s="34">
-        <v>6</v>
-      </c>
-      <c r="V9" s="78"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="79"/>
       <c r="X9" s="79"/>
       <c r="Y9" s="79"/>
       <c r="Z9" s="79"/>
       <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-    </row>
-    <row r="10" spans="2:29" ht="78">
+    </row>
+    <row r="10" spans="2:27" ht="78">
       <c r="B10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="T10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-    </row>
-    <row r="11" spans="2:29" ht="62.4">
+    </row>
+    <row r="11" spans="2:27" ht="62.4">
       <c r="B11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="R11" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="S11" s="16"/>
-      <c r="T11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="T11" s="16"/>
+      <c r="U11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-    </row>
-    <row r="12" spans="2:29" ht="172.2">
+    </row>
+    <row r="12" spans="2:27" ht="172.2">
       <c r="B12" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="E12" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="M12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="R12" s="16"/>
-      <c r="S12" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
       <c r="W12" s="44"/>
       <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
+      <c r="Y12" s="44" t="s">
+        <v>83</v>
+      </c>
       <c r="Z12" s="44"/>
-      <c r="AA12" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-    </row>
-    <row r="13" spans="2:29" ht="172.2">
+      <c r="AA12" s="44"/>
+    </row>
+    <row r="13" spans="2:27" ht="172.2">
       <c r="B13" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="Q13" s="16"/>
-      <c r="R13" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="44" t="s">
-        <v>84</v>
-      </c>
+      <c r="U13" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
       <c r="X13" s="44"/>
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-    </row>
-    <row r="14" spans="2:29" ht="158.4">
+    </row>
+    <row r="14" spans="2:27" ht="158.4">
       <c r="B14" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="N14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="44" t="s">
-        <v>84</v>
-      </c>
+      <c r="U14" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="44"/>
       <c r="Z14" s="44"/>
       <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-    </row>
-    <row r="15" spans="2:29" ht="158.4">
+    </row>
+    <row r="15" spans="2:27" ht="158.4">
       <c r="B15" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="P15" s="16"/>
-      <c r="Q15" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="44" t="s">
-        <v>84</v>
-      </c>
+      <c r="U15" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
       <c r="Z15" s="44"/>
       <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-    </row>
-    <row r="16" spans="2:29" ht="93">
+    </row>
+    <row r="16" spans="2:27" ht="93">
       <c r="B16" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>95</v>
-      </c>
       <c r="E16" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="42"/>
       <c r="K16" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="S16" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>83</v>
+      </c>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="W16" s="44"/>
-      <c r="X16" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44" t="s">
+        <v>83</v>
+      </c>
       <c r="Z16" s="44"/>
-      <c r="AA16" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-    </row>
-    <row r="17" spans="2:29" ht="119.4">
+      <c r="AA16" s="44"/>
+    </row>
+    <row r="17" spans="2:27" ht="119.4">
       <c r="B17" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>97</v>
-      </c>
       <c r="E17" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="42"/>
       <c r="K17" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>84</v>
-      </c>
-      <c r="W17" s="44"/>
+        <v>83</v>
+      </c>
+      <c r="M17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44" t="s">
+        <v>83</v>
+      </c>
       <c r="X17" s="44"/>
       <c r="Y17" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z17" s="44"/>
-      <c r="AA17" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
+      <c r="AA17" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:AC6"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="E6:AA6"/>
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="W7:AC7"/>
-    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="N7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3426,8 +3422,8 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3448,7 +3444,7 @@
     <row r="1" spans="2:14">
       <c r="B1" s="10"/>
       <c r="D1" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="56"/>
@@ -3530,13 +3526,13 @@
         <v>49</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="48">
         <v>29328.520833333299</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>1</v>
@@ -3546,10 +3542,10 @@
       </c>
       <c r="J6" s="83"/>
       <c r="K6" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.6">
@@ -3561,13 +3557,13 @@
         <v>50</v>
       </c>
       <c r="E7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>107</v>
-      </c>
       <c r="G7" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>1</v>
@@ -3577,10 +3573,10 @@
       </c>
       <c r="J7" s="84"/>
       <c r="K7" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="244.8">
@@ -3589,10 +3585,10 @@
       </c>
       <c r="C8" s="116"/>
       <c r="D8" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="48">
         <v>29328.520833333299</v>
@@ -3608,10 +3604,10 @@
       </c>
       <c r="J8" s="84"/>
       <c r="K8" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="244.8">
@@ -3620,10 +3616,10 @@
       </c>
       <c r="C9" s="116"/>
       <c r="D9" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="48">
         <v>29332.520833333299</v>
@@ -3639,10 +3635,10 @@
       </c>
       <c r="J9" s="84"/>
       <c r="K9" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1">
@@ -3697,24 +3693,24 @@
     </row>
     <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1">
       <c r="B13" s="101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="102"/>
       <c r="D13" s="102"/>
       <c r="E13" s="102"/>
       <c r="F13" s="93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="94"/>
       <c r="H13" s="101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="102"/>
       <c r="J13" s="102"/>
       <c r="K13" s="102"/>
       <c r="L13" s="103"/>
       <c r="M13" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="108"/>
     </row>
@@ -3729,16 +3725,16 @@
         <v>41</v>
       </c>
       <c r="E14" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="G14" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="H14" s="97" t="s">
         <v>71</v>
-      </c>
-      <c r="H14" s="97" t="s">
-        <v>72</v>
       </c>
       <c r="I14" s="87" t="s">
         <v>39</v>
@@ -3750,13 +3746,13 @@
         <v>42</v>
       </c>
       <c r="L14" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="106" t="s">
+      <c r="N14" s="96" t="s">
         <v>74</v>
-      </c>
-      <c r="N14" s="96" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -3779,22 +3775,22 @@
         <v>7</v>
       </c>
       <c r="C16" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16" s="54">
         <v>1</v>
       </c>
       <c r="F16" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I16" s="22">
         <v>7</v>
@@ -3809,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="24">
         <v>7</v>
